--- a/Generate Files/BOM/243-436_PCB-Support-STM32F407.xlsx
+++ b/Generate Files/BOM/243-436_PCB-Support-STM32F407.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lecegeplimoilou-my.sharepoint.com/personal/kevin_cotton_cegeplimoilou_ca/Documents/_Cours-TGE/243-436 - Developpement de produits 4 - Dessins et Certifications/kit/243-436-PCB-Support-STM32F407/Generate Files/BOM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6AB9EE8E-A18B-41AC-86E3-3C69DC2AD108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{00B78569-DFB2-494C-B400-8F2A881F672F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8BAB4C75-383F-4D6E-9436-FF1B348AE97C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AE7E1D0A-48FF-4304-A3E1-8F1D42DADE20}"/>
   </bookViews>
   <sheets>
     <sheet name="243-436_PCB-Support-STM32F407" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="173">
   <si>
     <t>LibRef</t>
   </si>
@@ -278,30 +278,6 @@
     <t>S9201-ND</t>
   </si>
   <si>
-    <t>CONN-USB-C-16POS</t>
-  </si>
-  <si>
-    <t>USB4085-GF-A</t>
-  </si>
-  <si>
-    <t>P6</t>
-  </si>
-  <si>
-    <t>CONN RCPT USB2.0 TYPE C RA - TH</t>
-  </si>
-  <si>
-    <t>? (R13-B182)</t>
-  </si>
-  <si>
-    <t>Global Connector Technology</t>
-  </si>
-  <si>
-    <t>C7095263</t>
-  </si>
-  <si>
-    <t>2073-USB4085-GF-ACT-ND</t>
-  </si>
-  <si>
     <t>CONN-100MIL-SKT-01X06</t>
   </si>
   <si>
@@ -317,37 +293,19 @@
     <t>C7499326</t>
   </si>
   <si>
-    <t>CONN-5MM-3POS-TERM-BLOCK</t>
-  </si>
-  <si>
-    <t>ZX-DG28V-5.0-3P</t>
-  </si>
-  <si>
-    <t>P12</t>
-  </si>
-  <si>
-    <t>CONN TERM BLOCK 3POS 5mm pitch</t>
-  </si>
-  <si>
-    <t>CONWECO0002</t>
-  </si>
-  <si>
-    <t>CONN-5MM-2POS-TERM-BLOCK</t>
-  </si>
-  <si>
-    <t>ZX-DG28V-5.0-2P</t>
-  </si>
-  <si>
-    <t>P13</t>
-  </si>
-  <si>
-    <t>CONN TERM BLOCK 2POS 5mm pitch</t>
-  </si>
-  <si>
-    <t>CONWECO0003</t>
-  </si>
-  <si>
-    <t>C49022995</t>
+    <t>CONN-100MIL-SKT-01X08</t>
+  </si>
+  <si>
+    <t>ZX-PM2.54-1-8PY</t>
+  </si>
+  <si>
+    <t>P14A, P14B, P15A, P15B</t>
+  </si>
+  <si>
+    <t>CONN SOCKET 8pos 100mils</t>
+  </si>
+  <si>
+    <t>C7499328</t>
   </si>
   <si>
     <t>CONN-100MIL-SKT-01X20</t>
@@ -359,7 +317,7 @@
     <t>P16, P17</t>
   </si>
   <si>
-    <t>CONN SOCKET 20POS 0.1 GOLD PCB</t>
+    <t>CONN SOCKET 20POS 2.54MM</t>
   </si>
   <si>
     <t>KCONDIV0053</t>
@@ -539,10 +497,13 @@
     <t>LDO Voltage Regulators 1A, 3.3V</t>
   </si>
   <si>
-    <t>Advanced Monolithic Systems</t>
+    <t>UMW</t>
   </si>
   <si>
     <t>C347222</t>
+  </si>
+  <si>
+    <t>C6186</t>
   </si>
   <si>
     <t>U_TXB0108PWR</t>
@@ -992,8 +953,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5D99AC1-5CED-4482-934F-C00AAA8C932A}">
-  <dimension ref="A1:O27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3054BA9-16F5-4650-98D7-3EB44FAF2F9D}">
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1432,7 +1393,7 @@
         <v>80</v>
       </c>
       <c r="C11" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>81</v>
@@ -1442,11 +1403,13 @@
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H11" s="1"/>
+        <v>42</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="I11" s="2" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>80</v>
@@ -1455,13 +1418,13 @@
         <v>22</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="O11" s="2" t="s">
         <v>52</v>
@@ -1469,19 +1432,19 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="1">
+        <v>4</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C12" s="1">
-        <v>5</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="2" t="s">
@@ -1494,13 +1457,13 @@
         <v>57</v>
       </c>
       <c r="J12" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="M12" s="2" t="s">
         <v>42</v>
@@ -1514,39 +1477,45 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C13" s="1">
-        <v>1</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="H13" s="1"/>
+        <v>93</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="I13" s="2" t="s">
         <v>57</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
+        <v>96</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="O13" s="2" t="s">
         <v>52</v>
       </c>
@@ -1559,7 +1528,7 @@
         <v>98</v>
       </c>
       <c r="C14" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>99</v>
@@ -1568,103 +1537,93 @@
         <v>100</v>
       </c>
       <c r="F14" s="1"/>
-      <c r="G14" s="2" t="s">
-        <v>101</v>
-      </c>
+      <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="2" t="s">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="2" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C15" s="1">
         <v>2</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F15" s="1"/>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="J15" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="I15" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="J15" s="2" t="s">
+      <c r="K15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L15" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="K15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
       <c r="O15" s="2" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="1">
+        <v>2</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C16" s="1">
-        <v>7</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="E16" s="2" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L16" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
@@ -1674,34 +1633,36 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="E17" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C17" s="1">
-        <v>2</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L17" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
@@ -1711,34 +1672,34 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C18" s="1">
-        <v>2</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="E18" s="2" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="2" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
@@ -1748,67 +1709,73 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="2" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
+        <v>132</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>133</v>
+      </c>
       <c r="O19" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
       </c>
       <c r="D20" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="2" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>22</v>
@@ -1836,18 +1803,16 @@
         <v>143</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F21" s="2" t="s">
         <v>144</v>
       </c>
+      <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="2" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>22</v>
@@ -1882,12 +1847,10 @@
         <v>151</v>
       </c>
       <c r="F22" s="1"/>
-      <c r="G22" s="2" t="s">
-        <v>152</v>
-      </c>
+      <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>149</v>
@@ -1896,10 +1859,14 @@
         <v>22</v>
       </c>
       <c r="L22" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N22" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
       <c r="O22" s="2" t="s">
         <v>24</v>
       </c>
@@ -1912,7 +1879,7 @@
         <v>156</v>
       </c>
       <c r="C23" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>157</v>
@@ -1921,10 +1888,14 @@
         <v>158</v>
       </c>
       <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
+      <c r="G23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="I23" s="2" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>156</v>
@@ -1933,48 +1904,44 @@
         <v>22</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="N23" s="2" t="s">
-        <v>161</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
       <c r="O23" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C24" s="1">
         <v>1</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
@@ -1984,120 +1951,42 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="E25" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C25" s="1">
-        <v>2</v>
-      </c>
-      <c r="D25" s="2" t="s">
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="J25" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L25" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="F25" s="1"/>
-      <c r="G25" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L25" s="2" t="s">
+      <c r="M25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N25" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
       <c r="O25" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C26" s="1">
-        <v>1</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C27" s="1">
-        <v>1</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N27" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="O27" s="2" t="s">
         <v>52</v>
       </c>
     </row>
